--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/FLORIDA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/FLORIDA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1743"/>
+  <dimension ref="A1:D1737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C40">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C43">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C53">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C58">
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D78">
-        <v>0.0009721952167995333</v>
+        <v>0.0009721952167995332</v>
       </c>
     </row>
     <row r="79">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C85">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C86">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C92">
@@ -1733,7 +1733,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C104">
@@ -1746,7 +1746,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C105">
@@ -2245,7 +2245,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C143">
@@ -2258,7 +2258,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C144">
@@ -2388,7 +2388,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C154">
@@ -2440,7 +2440,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C158">
@@ -2744,7 +2744,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C181">
@@ -2931,7 +2931,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C195">
@@ -2957,7 +2957,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3014,7 +3014,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C201">
@@ -3201,7 +3201,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C215">
@@ -3383,7 +3383,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C229">
@@ -3435,7 +3435,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C233">
@@ -3513,7 +3513,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C239">
@@ -3526,7 +3526,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C240">
@@ -3630,12 +3630,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C248">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C251">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C252">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C253">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C259">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C264">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C268">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C274">
@@ -4064,7 +4064,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C281">
@@ -4077,7 +4077,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C282">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C297">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C309">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C311">
@@ -4480,7 +4480,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C313">
@@ -4584,7 +4584,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C321">
@@ -4727,7 +4727,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C332">
@@ -4805,7 +4805,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C338">
@@ -4818,7 +4818,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C339">
@@ -4831,7 +4831,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C340">
@@ -4844,7 +4844,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C341">
@@ -5005,7 +5005,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C353">
@@ -5018,7 +5018,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C354">
@@ -5031,7 +5031,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C355">
@@ -5135,7 +5135,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C363">
@@ -5187,7 +5187,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C367">
@@ -5291,7 +5291,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C375">
@@ -5343,7 +5343,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C379">
@@ -5369,7 +5369,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C381">
@@ -5395,7 +5395,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C383">
@@ -5421,7 +5421,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C385">
@@ -5447,7 +5447,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C387">
@@ -5512,7 +5512,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C392">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C398">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C401">
@@ -5647,7 +5647,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C402">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C406">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C407">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C409">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C410">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C413">
@@ -5803,7 +5803,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C414">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C415">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C416">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C421">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C422">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C426">
@@ -5972,7 +5972,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C427">
@@ -6050,7 +6050,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C433">
@@ -6063,7 +6063,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C434">
@@ -6089,7 +6089,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C436">
@@ -6102,7 +6102,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C437">
@@ -6128,7 +6128,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C439">
@@ -6167,7 +6167,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C442">
@@ -6336,7 +6336,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C455">
@@ -6362,7 +6362,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C457">
@@ -6388,7 +6388,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C459">
@@ -6414,7 +6414,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C461">
@@ -6466,7 +6466,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C465">
@@ -6479,7 +6479,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C466">
@@ -6499,7 +6499,7 @@
         <v>25</v>
       </c>
       <c r="D467">
-        <v>0.0009721952167995333</v>
+        <v>0.0009721952167995332</v>
       </c>
     </row>
     <row r="468">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C478">
@@ -6731,7 +6731,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C485">
@@ -6744,7 +6744,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C486">
@@ -6822,14 +6822,14 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C492">
         <v>25</v>
       </c>
       <c r="D492">
-        <v>0.0009721952167995333</v>
+        <v>0.0009721952167995332</v>
       </c>
     </row>
     <row r="493">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C496">
@@ -6926,7 +6926,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C500">
@@ -6965,7 +6965,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C503">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C510">
@@ -7069,7 +7069,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C511">
@@ -7082,7 +7082,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C512">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C513">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C514">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C516">
@@ -7147,7 +7147,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C517">
@@ -7160,7 +7160,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C518">
@@ -7199,7 +7199,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C521">
@@ -7277,7 +7277,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C527">
@@ -7290,7 +7290,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C528">
@@ -7342,7 +7342,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C532">
@@ -7368,7 +7368,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C534">
@@ -7381,7 +7381,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C535">
@@ -7420,7 +7420,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C538">
@@ -7511,7 +7511,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C545">
@@ -7524,7 +7524,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C546">
@@ -7537,7 +7537,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C547">
@@ -7576,7 +7576,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C550">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C555">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C556">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C561">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C563">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C568">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C579">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C583">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C587">
@@ -8127,7 +8127,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C592">
@@ -8205,7 +8205,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C598">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C603">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C605">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C608">
@@ -8348,7 +8348,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C609">
@@ -8361,7 +8361,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C610">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C611">
@@ -8413,7 +8413,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C614">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C615">
@@ -8452,7 +8452,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C617">
@@ -8504,7 +8504,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C621">
@@ -8517,7 +8517,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C622">
@@ -8543,7 +8543,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C624">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C633">
@@ -8673,7 +8673,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C634">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C635">
@@ -8738,7 +8738,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C639">
@@ -8751,7 +8751,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C640">
@@ -8790,7 +8790,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C643">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C644">
@@ -9120,7 +9120,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C668">
@@ -9965,7 +9965,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C733">
@@ -10295,7 +10295,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C758">
@@ -10386,7 +10386,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C765">
@@ -10438,7 +10438,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C769">
@@ -10490,7 +10490,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C773">
@@ -10516,7 +10516,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C775">
@@ -10607,7 +10607,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C782">
@@ -10651,7 +10651,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C785">
@@ -10703,7 +10703,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C789">
@@ -10794,7 +10794,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C796">
@@ -11046,7 +11046,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C815">
@@ -11072,7 +11072,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C817">
@@ -11137,7 +11137,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C822">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C826">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C833">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C836">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C837">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C839">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C840">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C843">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C844">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C845">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C847">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C848">
@@ -11493,7 +11493,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C849">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C850">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C851">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C853">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C854">
@@ -11662,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C862">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C863">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C865">
@@ -11727,7 +11727,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C867">
@@ -11779,7 +11779,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C871">
@@ -11792,7 +11792,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C872">
@@ -11805,7 +11805,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C873">
@@ -11831,7 +11831,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C875">
@@ -11844,7 +11844,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C876">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C889">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C891">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C898">
@@ -12273,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C909">
@@ -12325,7 +12325,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C913">
@@ -12533,7 +12533,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C929">
@@ -12728,7 +12728,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C944">
@@ -12741,7 +12741,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C945">
@@ -13274,7 +13274,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C986">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C988">
@@ -13508,7 +13508,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1004">
@@ -13573,7 +13573,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1009">
@@ -13781,7 +13781,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1025">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1026">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1027">
@@ -14054,7 +14054,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1046">
@@ -14106,7 +14106,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1050">
@@ -14171,7 +14171,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1055">
@@ -14197,7 +14197,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1057">
@@ -14405,7 +14405,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1073">
@@ -14691,7 +14691,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1095">
@@ -15042,7 +15042,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1122">
@@ -15237,7 +15237,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1137">
@@ -15263,7 +15263,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1139">
@@ -15276,7 +15276,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1140">
@@ -15289,7 +15289,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1141">
@@ -15315,7 +15315,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1143">
@@ -15328,7 +15328,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1144">
@@ -15341,7 +15341,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1145">
@@ -15354,7 +15354,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1146">
@@ -15380,7 +15380,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1148">
@@ -15393,7 +15393,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1149">
@@ -15406,7 +15406,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1150">
@@ -15419,7 +15419,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1151">
@@ -15432,7 +15432,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1152">
@@ -15471,7 +15471,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1155">
@@ -15484,7 +15484,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1156">
@@ -15497,7 +15497,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1157">
@@ -15536,7 +15536,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1160">
@@ -15575,14 +15575,14 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1163">
         <v>25</v>
       </c>
       <c r="D1163">
-        <v>0.0009721952167995333</v>
+        <v>0.0009721952167995332</v>
       </c>
     </row>
     <row r="1164">
@@ -15595,7 +15595,7 @@
         <v>2395</v>
       </c>
       <c r="D1164">
-        <v>0.09313630176939529</v>
+        <v>0.09313630176939527</v>
       </c>
     </row>
     <row r="1165">
@@ -15827,7 +15827,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1182">
@@ -15853,7 +15853,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1184">
@@ -15970,7 +15970,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1193">
@@ -16100,7 +16100,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1203">
@@ -16256,7 +16256,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1215">
@@ -16308,7 +16308,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1219">
@@ -16321,7 +16321,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1220">
@@ -16360,7 +16360,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1223">
@@ -16490,7 +16490,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1233">
@@ -16503,7 +16503,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1234">
@@ -16633,7 +16633,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1244">
@@ -16854,7 +16854,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1261">
@@ -16893,7 +16893,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1264">
@@ -16906,7 +16906,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1265">
@@ -17036,7 +17036,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1275">
@@ -17049,7 +17049,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1276">
@@ -17101,7 +17101,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1280">
@@ -17127,7 +17127,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1282">
@@ -17192,7 +17192,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1287">
@@ -17335,7 +17335,7 @@
     <row r="1298">
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1298">
@@ -17387,7 +17387,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1302">
@@ -17517,7 +17517,7 @@
     <row r="1312">
       <c r="B1312" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1312">
@@ -17613,7 +17613,7 @@
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1319">
@@ -17639,7 +17639,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1321">
@@ -17717,7 +17717,7 @@
     <row r="1327">
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1327">
@@ -17730,7 +17730,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1328">
@@ -17769,7 +17769,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1331">
@@ -17808,7 +17808,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1334">
@@ -17961,7 +17961,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1345">
@@ -17974,7 +17974,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1346">
@@ -18039,7 +18039,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1351">
@@ -18065,7 +18065,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1353">
@@ -18176,13 +18176,13 @@
         <v>25</v>
       </c>
       <c r="D1361">
-        <v>0.0009721952167995333</v>
+        <v>0.0009721952167995332</v>
       </c>
     </row>
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1362">
@@ -18247,7 +18247,7 @@
     <row r="1367">
       <c r="B1367" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1367">
@@ -18312,7 +18312,7 @@
     <row r="1372">
       <c r="B1372" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1372">
@@ -18390,7 +18390,7 @@
     <row r="1378">
       <c r="B1378" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1378">
@@ -18442,7 +18442,7 @@
     <row r="1382">
       <c r="B1382" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1382">
@@ -18455,7 +18455,7 @@
     <row r="1383">
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1383">
@@ -18468,7 +18468,7 @@
     <row r="1384">
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1384">
@@ -18481,7 +18481,7 @@
     <row r="1385">
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1385">
@@ -18494,7 +18494,7 @@
     <row r="1386">
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1386">
@@ -18507,7 +18507,7 @@
     <row r="1387">
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1387">
@@ -19107,7 +19107,7 @@
     <row r="1432">
       <c r="B1432" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1432">
@@ -19632,7 +19632,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1472">
@@ -19806,7 +19806,7 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1485">
@@ -19871,7 +19871,7 @@
     <row r="1490">
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1490">
@@ -19897,7 +19897,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1492">
@@ -20175,7 +20175,7 @@
     <row r="1513">
       <c r="B1513" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1513">
@@ -20227,7 +20227,7 @@
     <row r="1517">
       <c r="B1517" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1517">
@@ -20370,7 +20370,7 @@
     <row r="1528">
       <c r="B1528" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1528">
@@ -20396,7 +20396,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1530">
@@ -20448,7 +20448,7 @@
     <row r="1534">
       <c r="B1534" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1534">
@@ -20474,7 +20474,7 @@
     <row r="1536">
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1536">
@@ -20578,7 +20578,7 @@
     <row r="1544">
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1544">
@@ -20695,7 +20695,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1553">
@@ -20903,7 +20903,7 @@
     <row r="1569">
       <c r="B1569" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1569">
@@ -20916,7 +20916,7 @@
     <row r="1570">
       <c r="B1570" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1570">
@@ -20955,7 +20955,7 @@
     <row r="1573">
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1573">
@@ -20968,7 +20968,7 @@
     <row r="1574">
       <c r="B1574" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1574">
@@ -20981,7 +20981,7 @@
     <row r="1575">
       <c r="B1575" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1575">
@@ -21111,7 +21111,7 @@
     <row r="1585">
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1585">
@@ -21150,7 +21150,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1588">
@@ -21176,7 +21176,7 @@
     <row r="1590">
       <c r="B1590" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1590">
@@ -21189,7 +21189,7 @@
     <row r="1591">
       <c r="B1591" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1591">
@@ -21241,7 +21241,7 @@
     <row r="1595">
       <c r="B1595" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1595">
@@ -21267,7 +21267,7 @@
     <row r="1597">
       <c r="B1597" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1597">
@@ -21313,13 +21313,13 @@
         <v>25</v>
       </c>
       <c r="D1600">
-        <v>0.0009721952167995333</v>
+        <v>0.0009721952167995332</v>
       </c>
     </row>
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1601">
@@ -21345,7 +21345,7 @@
     <row r="1603">
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1603">
@@ -21475,7 +21475,7 @@
     <row r="1613">
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1613">
@@ -21527,7 +21527,7 @@
     <row r="1617">
       <c r="B1617" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1617">
@@ -21540,7 +21540,7 @@
     <row r="1618">
       <c r="B1618" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1618">
@@ -21592,7 +21592,7 @@
     <row r="1622">
       <c r="B1622" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1622">
@@ -21709,7 +21709,7 @@
     <row r="1631">
       <c r="B1631" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1631">
@@ -21735,7 +21735,7 @@
     <row r="1633">
       <c r="B1633" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1633">
@@ -21826,7 +21826,7 @@
     <row r="1640">
       <c r="B1640" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1640">
@@ -22216,7 +22216,7 @@
     <row r="1670">
       <c r="B1670" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1670">
@@ -22333,7 +22333,7 @@
     <row r="1679">
       <c r="B1679" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1679">
@@ -22564,7 +22564,7 @@
     <row r="1696">
       <c r="B1696" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1696">
@@ -22590,7 +22590,7 @@
     <row r="1698">
       <c r="B1698" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1698">
@@ -22707,7 +22707,7 @@
     <row r="1707">
       <c r="B1707" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1707">
@@ -22824,7 +22824,7 @@
     <row r="1716">
       <c r="B1716" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1716">
@@ -22837,7 +22837,7 @@
     <row r="1717">
       <c r="B1717" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1717">
@@ -22850,7 +22850,7 @@
     <row r="1718">
       <c r="B1718" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1718">
@@ -22954,7 +22954,7 @@
     <row r="1726">
       <c r="B1726" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1726">
@@ -23006,7 +23006,7 @@
     <row r="1730">
       <c r="B1730" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1730">
@@ -23105,41 +23105,6 @@
       </c>
       <c r="D1737">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1739">
-      <c r="A1739" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1740">
-      <c r="A1740" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1741">
-      <c r="A1741" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1742">
-      <c r="A1742" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1743">
-      <c r="A1743" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
